--- a/Docs/Book1.xlsx
+++ b/Docs/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Arctech\MikeAcroPhobia\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA23F9C-E67A-442D-AD08-9B9D98848219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C7084A-CB72-4871-B3C3-EAE8BBDD5FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="11055" xr2:uid="{A7F1B1D1-5A1F-4C02-BBC0-2BCE281A030C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{447A745B-E316-4CFF-B43B-60921B617C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>Level 8</t>
+  </si>
+  <si>
+    <t>Level 9</t>
+  </si>
+  <si>
+    <t>Level 10</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Three Letter Round</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Four Letter Round</t>
+  </si>
+  <si>
+    <t>Five Letter Round</t>
+  </si>
+  <si>
+    <t>Six Letter Round</t>
+  </si>
+  <si>
+    <t>Seven Letter Round</t>
+  </si>
+  <si>
+    <t>Min Exp</t>
+  </si>
+  <si>
+    <t>Max Exp</t>
+  </si>
   <si>
     <t>P1</t>
   </si>
@@ -48,27 +111,6 @@
   </si>
   <si>
     <t>P4</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Continued Again</t>
   </si>
   <si>
     <t>P3 voted to no one</t>
@@ -103,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -111,13 +153,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,282 +699,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD67BFB-E7D8-42F0-A54F-8023D769CECB}">
-  <dimension ref="B1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4839C7F1-10E0-4EA4-9D28-2A1089EB4344}">
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10">
+        <v>500</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>500</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="16">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="17">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E9" s="10">
+        <f>D9+2500</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="10">
+        <f>D10+3000</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f>SUM(C2:G2)</f>
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E11" s="10">
+        <f>D11+3500</f>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I5" si="0">SUM(C3:G3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>SUM(C9:G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I12" si="1">SUM(C10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>SUM(C16:G16)</f>
-        <v>1</v>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="13">
+        <f>D12+4000</f>
+        <v>18500</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I19" si="2">SUM(C17:G17)</f>
-        <v>1</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -715,101 +939,101 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
+        <f>SUM(C18:G18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>SUM(C23:G23)</f>
-        <v>2</v>
+        <f t="shared" ref="I19:I21" si="0">SUM(C19:G19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I26" si="3">SUM(C24:G24)</f>
-        <v>1</v>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
@@ -817,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>SUM(C25:G25)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -832,74 +1056,76 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="I26:I28" si="1">SUM(C26:G26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -914,28 +1140,68 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I30:I32" si="4">SUM(C31:G31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I34" si="2">SUM(C33:G33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
